--- a/Assets/StreamingAssets/Table/BattleDialog-.xlsx
+++ b/Assets/StreamingAssets/Table/BattleDialog-.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA5CA22-A402-456F-983B-58518C947F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D87071B-DDB8-40E6-9157-B94C717B049F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="2220" windowWidth="15660" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="4080" windowWidth="15660" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,83 +90,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Naruto]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Neji]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Shikamaru]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Kiba]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Jiroubou]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Jiroubou]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[放我们出去，可恶！！]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[看起来只是普通的石壁。]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[是他们的忍术，恐怕这里面有什么花招。]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[看样子，必须把这墙打穿才能出去。]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[别白费力气了，你们都是我的猎物!]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[我能感觉到，墙壁……在吸收我们的查克拉。]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[不仅如此，墙壁也在自动修复。]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[究竟怎么回事！]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[或许，可以试试合力攻击某个墙体。]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[怎么可能？！]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[唔，饱餐一顿。。。]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[要赶快追上他们。]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>speakers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Naruto"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Neji"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Shikamaru"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["放我们出去，可恶！！"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["看起来只是普通的石壁。"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["是他们的忍术，恐怕这里面有什么花招。"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["看样子，必须把这墙打穿才能出去。"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["别白费力气了，你们都是我的猎物！"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["我能感觉到，墙壁……在吸收我们的查克拉。"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["不仅如此，墙壁也在自动修复。"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["究竟怎么回事！"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["或许，可以试试合力攻击某个墙体。"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["怎么可能？！"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["唔，饱餐一顿。。。"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["要赶快追上他们。"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Kiba"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Jiroubou"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +511,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -606,10 +602,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -639,10 +635,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -672,10 +668,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -705,10 +701,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -738,10 +734,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -771,10 +767,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -804,10 +800,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -837,10 +833,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -870,10 +866,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -903,10 +899,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -936,10 +932,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -969,10 +965,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1002,10 +998,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
